--- a/trunk/Documents/IndoPacific/indoPacificTemplate_v9.xlsx
+++ b/trunk/Documents/IndoPacific/indoPacificTemplate_v9.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16680" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-12180" yWindow="-22040" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -292,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -305,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -318,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -331,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="W1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -344,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="X1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -357,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="Y1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -370,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0">
+    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -394,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0">
+    <comment ref="AA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -407,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0">
+    <comment ref="AB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0">
+    <comment ref="AC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -433,7 +433,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0">
+    <comment ref="AD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -446,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0">
+    <comment ref="AE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -459,7 +459,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0">
+    <comment ref="AF1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -472,7 +472,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0">
+    <comment ref="AG1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -485,7 +485,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0">
+    <comment ref="AH1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -498,7 +498,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0">
+    <comment ref="AI1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -511,7 +511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0">
+    <comment ref="AJ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -524,7 +524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0">
+    <comment ref="AK1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -538,7 +538,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0">
+    <comment ref="AL1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -551,7 +551,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0">
+    <comment ref="AM1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -565,7 +565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0">
+    <comment ref="AN1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -578,7 +578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0">
+    <comment ref="AO1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -591,7 +591,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0">
+    <comment ref="AP1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -604,7 +604,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0">
+    <comment ref="AQ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -617,7 +617,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0">
+    <comment ref="AR1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -630,7 +630,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR1" authorId="0">
+    <comment ref="AS1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -643,7 +643,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS1" authorId="0">
+    <comment ref="AT1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -656,7 +656,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT1" authorId="0">
+    <comment ref="AU1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -669,7 +669,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU1" authorId="0">
+    <comment ref="AV1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -682,7 +682,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV1" authorId="0">
+    <comment ref="AW1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -695,7 +695,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0">
+    <comment ref="AX1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -708,7 +708,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0">
+    <comment ref="AY1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -721,7 +721,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0">
+    <comment ref="AZ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -734,7 +734,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ1" authorId="0">
+    <comment ref="BA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -747,7 +747,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BA1" authorId="0">
+    <comment ref="BB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -760,7 +760,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BB1" authorId="0">
+    <comment ref="BC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -773,7 +773,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC1" authorId="0">
+    <comment ref="BD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -786,7 +786,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD1" authorId="0">
+    <comment ref="BE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -799,7 +799,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BE1" authorId="0">
+    <comment ref="BF1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -812,7 +812,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF1" authorId="0">
+    <comment ref="BG1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -825,7 +825,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BG1" authorId="0">
+    <comment ref="BH1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -838,7 +838,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BH1" authorId="0">
+    <comment ref="BI1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -851,7 +851,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BI1" authorId="0">
+    <comment ref="BJ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -864,7 +864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BJ1" authorId="0">
+    <comment ref="BK1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1732,7 +1732,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="483">
   <si>
     <t>Samples Tab</t>
   </si>
@@ -1903,9 +1903,6 @@
   </si>
   <si>
     <t>error if not a number</t>
-  </si>
-  <si>
-    <t> http://purl.obolibrary.org/obo/PATO_0000128</t>
   </si>
   <si>
     <t>In Grams. Referring to the weight of the organism from which the sample was derived</t>
@@ -3290,7 +3287,16 @@
     <t>NAME</t>
   </si>
   <si>
-    <t>Morphology2</t>
+    <t>myNewColumn</t>
+  </si>
+  <si>
+    <t>my Value</t>
+  </si>
+  <si>
+    <t>IN0123.02</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0000128</t>
   </si>
 </sst>
 </file>
@@ -4252,7 +4258,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="137">
+  <cellStyleXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4390,8 +4396,16 @@
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4648,8 +4662,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="137">
+  <cellStyles count="145">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4718,6 +4738,10 @@
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4786,6 +4810,10 @@
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5131,26 +5159,26 @@
   <sheetData>
     <row r="2" spans="1:2" ht="16" customHeight="1">
       <c r="A2" s="78" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B2" s="82" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="19" customHeight="1">
       <c r="A3" s="78" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="19" customHeight="1">
       <c r="A4" s="79" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B4" s="84" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12.75" customHeight="1">
@@ -5163,18 +5191,18 @@
     </row>
     <row r="7" spans="1:2" ht="120">
       <c r="A7" s="75" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12"/>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="76" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
       <c r="A10" s="75" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
@@ -5182,7 +5210,7 @@
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="77" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16" customHeight="1">
@@ -5192,7 +5220,7 @@
     </row>
     <row r="15" spans="1:2" ht="17" customHeight="1">
       <c r="A15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -5209,11 +5237,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:BJ21"/>
+  <dimension ref="A1:BK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q7" sqref="Q7"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -5229,31 +5257,31 @@
     <col min="13" max="13" width="14.6640625" customWidth="1"/>
     <col min="14" max="14" width="18.1640625" style="15" customWidth="1"/>
     <col min="15" max="15" width="15.83203125" customWidth="1"/>
-    <col min="20" max="20" width="13.33203125" customWidth="1"/>
-    <col min="21" max="21" width="26.33203125" customWidth="1"/>
-    <col min="22" max="22" width="16.5" customWidth="1"/>
-    <col min="23" max="23" width="13.6640625" customWidth="1"/>
-    <col min="24" max="24" width="16.33203125" customWidth="1"/>
-    <col min="25" max="26" width="22.33203125" customWidth="1"/>
-    <col min="27" max="27" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.33203125" customWidth="1"/>
-    <col min="32" max="32" width="19.1640625" customWidth="1"/>
-    <col min="33" max="33" width="20.33203125" customWidth="1"/>
-    <col min="34" max="34" width="18.5" customWidth="1"/>
-    <col min="35" max="35" width="19.5" style="15" customWidth="1"/>
-    <col min="36" max="36" width="15.83203125" customWidth="1"/>
-    <col min="37" max="37" width="15" customWidth="1"/>
-    <col min="38" max="38" width="18" customWidth="1"/>
-    <col min="40" max="40" width="21.1640625" customWidth="1"/>
-    <col min="41" max="41" width="38" customWidth="1"/>
-    <col min="42" max="42" width="35.1640625" customWidth="1"/>
-    <col min="43" max="43" width="17" customWidth="1"/>
-    <col min="45" max="45" width="16" customWidth="1"/>
-    <col min="54" max="54" width="14.6640625" customWidth="1"/>
-    <col min="55" max="55" width="20.1640625" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" customWidth="1"/>
+    <col min="22" max="22" width="26.33203125" customWidth="1"/>
+    <col min="23" max="23" width="16.5" customWidth="1"/>
+    <col min="24" max="24" width="13.6640625" customWidth="1"/>
+    <col min="25" max="25" width="16.33203125" customWidth="1"/>
+    <col min="26" max="27" width="22.33203125" customWidth="1"/>
+    <col min="28" max="28" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.33203125" customWidth="1"/>
+    <col min="33" max="33" width="19.1640625" customWidth="1"/>
+    <col min="34" max="34" width="20.33203125" customWidth="1"/>
+    <col min="35" max="35" width="18.5" customWidth="1"/>
+    <col min="36" max="36" width="19.5" style="15" customWidth="1"/>
+    <col min="37" max="37" width="15.83203125" customWidth="1"/>
+    <col min="38" max="38" width="15" customWidth="1"/>
+    <col min="39" max="39" width="18" customWidth="1"/>
+    <col min="41" max="41" width="21.1640625" customWidth="1"/>
+    <col min="42" max="42" width="38" customWidth="1"/>
+    <col min="43" max="43" width="35.1640625" customWidth="1"/>
+    <col min="44" max="44" width="17" customWidth="1"/>
+    <col min="46" max="46" width="16" customWidth="1"/>
+    <col min="55" max="55" width="14.6640625" customWidth="1"/>
+    <col min="56" max="56" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="68" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:63" s="68" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="73" t="s">
         <v>11</v>
       </c>
@@ -5261,187 +5289,190 @@
         <v>17</v>
       </c>
       <c r="C1" s="66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D1" s="67" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E1" s="63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F1" s="63" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G1" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H1" s="63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I1" s="63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J1" s="62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K1" s="62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L1" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M1" s="63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N1" s="64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O1" s="63" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P1" s="63" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q1" s="65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R1" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="S1" s="62" t="s">
-        <v>160</v>
+        <v>155</v>
+      </c>
+      <c r="S1" s="91" t="s">
+        <v>479</v>
       </c>
       <c r="T1" s="62" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="U1" s="62" t="s">
+        <v>162</v>
+      </c>
+      <c r="V1" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="62" t="s">
+      <c r="W1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="80" t="s">
+      <c r="X1" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="62" t="s">
+      <c r="Y1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" s="81" t="s">
+      <c r="Z1" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" s="62" t="s">
+      <c r="AA1" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="AA1" s="62" t="s">
+      <c r="AB1" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="AB1" s="62" t="s">
+      <c r="AC1" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AC1" s="62" t="s">
+      <c r="AD1" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE1" s="70" t="s">
-        <v>62</v>
+      <c r="AE1" s="62" t="s">
+        <v>58</v>
       </c>
       <c r="AF1" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG1" s="62" t="s">
-        <v>70</v>
+        <v>61</v>
+      </c>
+      <c r="AG1" s="70" t="s">
+        <v>65</v>
       </c>
       <c r="AH1" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI1" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ1" s="62" t="s">
-        <v>98</v>
+        <v>69</v>
+      </c>
+      <c r="AI1" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ1" s="69" t="s">
+        <v>93</v>
       </c>
       <c r="AK1" s="62" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AL1" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM1" s="80" t="s">
-        <v>108</v>
-      </c>
-      <c r="AN1" s="62" t="s">
-        <v>112</v>
+        <v>99</v>
+      </c>
+      <c r="AM1" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN1" s="80" t="s">
+        <v>107</v>
       </c>
       <c r="AO1" s="62" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="AP1" s="62" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AQ1" s="62" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AR1" s="62" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="AS1" s="62" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="AT1" s="62" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AU1" s="62" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="AV1" s="62" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AW1" s="62" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AX1" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AY1" s="62" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="AZ1" s="62" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="BA1" s="62" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="BB1" s="62" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="BC1" s="62" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="BD1" s="62" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="BE1" s="62" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="BF1" s="62" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="BG1" s="62" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="BH1" s="62" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="BI1" s="62" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="BJ1" s="62" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="2" spans="1:62" ht="15" customHeight="1">
+        <v>248</v>
+      </c>
+      <c r="BK1" s="62" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:63" ht="15" customHeight="1">
       <c r="A2" s="36" t="s">
         <v>16</v>
       </c>
@@ -5449,10 +5480,10 @@
         <v>21</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E2" s="36">
         <v>-8.6992250000000002</v>
@@ -5464,7 +5495,7 @@
         <v>1000</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I2" s="36">
         <v>2006</v>
@@ -5476,218 +5507,392 @@
         <v>21</v>
       </c>
       <c r="L2" s="36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M2" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N2" s="60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O2" s="36" t="s">
-        <v>480</v>
+        <v>175</v>
       </c>
       <c r="P2" s="36">
         <v>207610</v>
       </c>
       <c r="Q2" s="36"/>
       <c r="R2" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="S2" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="S2" s="90" t="s">
+        <v>480</v>
       </c>
       <c r="T2" s="36" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="U2" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="V2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="36" t="s">
+      <c r="W2" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="36" t="s">
+      <c r="X2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="36" t="s">
+      <c r="Y2" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="36" t="s">
+      <c r="Z2" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="Z2" s="36" t="s">
+      <c r="AA2" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="AA2" s="36" t="s">
-        <v>311</v>
-      </c>
       <c r="AB2" s="36" t="s">
-        <v>331</v>
-      </c>
-      <c r="AC2" s="36">
-        <v>20</v>
+        <v>310</v>
+      </c>
+      <c r="AC2" s="36" t="s">
+        <v>330</v>
       </c>
       <c r="AD2" s="36">
         <v>20</v>
       </c>
-      <c r="AE2" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36" t="s">
-        <v>73</v>
-      </c>
+      <c r="AE2" s="36">
+        <v>20</v>
+      </c>
+      <c r="AF2" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG2" s="36"/>
       <c r="AH2" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI2" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ2" s="36" t="s">
-        <v>99</v>
+        <v>72</v>
+      </c>
+      <c r="AI2" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ2" s="60" t="s">
+        <v>96</v>
       </c>
       <c r="AK2" s="36" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AL2" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="AM2" s="36">
+        <v>102</v>
+      </c>
+      <c r="AM2" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN2" s="36">
         <v>1</v>
       </c>
-      <c r="AN2" s="36">
+      <c r="AO2" s="36">
         <v>20</v>
       </c>
-      <c r="AO2" s="36"/>
       <c r="AP2" s="36"/>
-      <c r="AQ2" s="36" t="s">
-        <v>125</v>
-      </c>
+      <c r="AQ2" s="36"/>
       <c r="AR2" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS2" s="36"/>
-      <c r="AT2" s="36" t="s">
-        <v>136</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="AS2" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT2" s="36"/>
       <c r="AU2" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="AV2" s="36">
+        <v>135</v>
+      </c>
+      <c r="AV2" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW2" s="36">
         <v>2006</v>
       </c>
-      <c r="AW2" s="36">
+      <c r="AX2" s="36">
         <v>10</v>
       </c>
-      <c r="AX2" s="36">
+      <c r="AY2" s="36">
         <v>21</v>
       </c>
-      <c r="AY2" s="36" t="s">
-        <v>216</v>
-      </c>
       <c r="AZ2" s="36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BA2" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="BB2" s="36"/>
-      <c r="BC2" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="BD2" s="36"/>
-      <c r="BE2" s="36" t="s">
-        <v>237</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="BB2" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="BC2" s="36"/>
+      <c r="BD2" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE2" s="36"/>
       <c r="BF2" s="36" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="BG2" s="36" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="BH2" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="BI2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="BI2" s="36"/>
-      <c r="BJ2" s="36" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:62" ht="15" customHeight="1">
-      <c r="N3" s="20"/>
-      <c r="AI3" s="20"/>
-    </row>
-    <row r="4" spans="1:62" ht="15" customHeight="1">
+      <c r="BJ2" s="36"/>
+      <c r="BK2" s="36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63" ht="15" customHeight="1">
+      <c r="A3" s="36" t="s">
+        <v>481</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" s="36">
+        <v>-8.6992250000000002</v>
+      </c>
+      <c r="F3" s="36">
+        <v>115.268333</v>
+      </c>
+      <c r="G3" s="36">
+        <v>1000</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" s="36">
+        <v>2006</v>
+      </c>
+      <c r="J3" s="36">
+        <v>12</v>
+      </c>
+      <c r="K3" s="36">
+        <v>21</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="N3" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="O3" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="P3" s="36">
+        <v>207610</v>
+      </c>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="S3" s="90" t="s">
+        <v>480</v>
+      </c>
+      <c r="T3" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="U3" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="V3" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y3" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA3" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB3" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="AC3" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="AD3" s="36">
+        <v>20</v>
+      </c>
+      <c r="AE3" s="36">
+        <v>20</v>
+      </c>
+      <c r="AF3" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI3" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ3" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK3" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL3" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM3" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN3" s="36">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="36">
+        <v>20</v>
+      </c>
+      <c r="AP3" s="36"/>
+      <c r="AQ3" s="36"/>
+      <c r="AR3" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS3" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT3" s="36"/>
+      <c r="AU3" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV3" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW3" s="36">
+        <v>2006</v>
+      </c>
+      <c r="AX3" s="36">
+        <v>10</v>
+      </c>
+      <c r="AY3" s="36">
+        <v>21</v>
+      </c>
+      <c r="AZ3" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="BA3" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="BB3" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="BC3" s="36"/>
+      <c r="BD3" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE3" s="36"/>
+      <c r="BF3" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG3" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="BH3" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="BI3" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="BJ3" s="36"/>
+      <c r="BK3" s="36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63" ht="15" customHeight="1">
       <c r="N4" s="20"/>
-      <c r="AI4" s="20"/>
-    </row>
-    <row r="5" spans="1:62" ht="15" customHeight="1">
+      <c r="AJ4" s="20"/>
+    </row>
+    <row r="5" spans="1:63" ht="15" customHeight="1">
       <c r="N5" s="20"/>
-      <c r="AI5" s="20"/>
-    </row>
-    <row r="6" spans="1:62" ht="15" customHeight="1">
+      <c r="AJ5" s="20"/>
+    </row>
+    <row r="6" spans="1:63" ht="15" customHeight="1">
       <c r="N6" s="20"/>
-      <c r="AI6" s="20"/>
-    </row>
-    <row r="7" spans="1:62" ht="15" customHeight="1">
+      <c r="AJ6" s="20"/>
+    </row>
+    <row r="7" spans="1:63" ht="15" customHeight="1">
       <c r="N7" s="20"/>
-      <c r="AI7" s="20"/>
-    </row>
-    <row r="8" spans="1:62" ht="15" customHeight="1">
+      <c r="AJ7" s="20"/>
+    </row>
+    <row r="8" spans="1:63" ht="15" customHeight="1">
       <c r="N8" s="20"/>
-      <c r="AI8" s="20"/>
-    </row>
-    <row r="9" spans="1:62" ht="15" customHeight="1">
+      <c r="AJ8" s="20"/>
+    </row>
+    <row r="9" spans="1:63" ht="15" customHeight="1">
       <c r="N9"/>
-      <c r="AI9"/>
-    </row>
-    <row r="10" spans="1:62" ht="15" customHeight="1">
+      <c r="AJ9"/>
+    </row>
+    <row r="10" spans="1:63" ht="15" customHeight="1">
       <c r="N10" s="20"/>
-      <c r="AI10" s="20"/>
-    </row>
-    <row r="11" spans="1:62" ht="15" customHeight="1">
+      <c r="AJ10" s="20"/>
+    </row>
+    <row r="11" spans="1:63" ht="15" customHeight="1">
       <c r="N11" s="20"/>
-      <c r="AI11" s="20"/>
-    </row>
-    <row r="12" spans="1:62" ht="15" customHeight="1">
+      <c r="AJ11" s="20"/>
+    </row>
+    <row r="12" spans="1:63" ht="15" customHeight="1">
       <c r="N12" s="20"/>
-      <c r="AI12" s="20"/>
-    </row>
-    <row r="13" spans="1:62" ht="15" customHeight="1">
+      <c r="AJ12" s="20"/>
+    </row>
+    <row r="13" spans="1:63" ht="15" customHeight="1">
       <c r="N13" s="20"/>
-      <c r="AI13" s="20"/>
-    </row>
-    <row r="14" spans="1:62" ht="15" customHeight="1">
+      <c r="AJ13" s="20"/>
+    </row>
+    <row r="14" spans="1:63" ht="15" customHeight="1">
       <c r="N14" s="20"/>
-      <c r="AI14" s="20"/>
-    </row>
-    <row r="15" spans="1:62" ht="15" customHeight="1">
+      <c r="AJ14" s="20"/>
+    </row>
+    <row r="15" spans="1:63" ht="15" customHeight="1">
       <c r="N15" s="20"/>
-      <c r="AI15" s="20"/>
-    </row>
-    <row r="16" spans="1:62" ht="15" customHeight="1">
+      <c r="AJ15" s="20"/>
+    </row>
+    <row r="16" spans="1:63" ht="15" customHeight="1">
       <c r="N16" s="20"/>
-      <c r="AI16" s="20"/>
-    </row>
-    <row r="17" spans="14:35" ht="15" customHeight="1">
+      <c r="AJ16" s="20"/>
+    </row>
+    <row r="17" spans="14:36" ht="15" customHeight="1">
       <c r="N17" s="20"/>
-      <c r="AI17" s="20"/>
-    </row>
-    <row r="18" spans="14:35" ht="15" customHeight="1">
+      <c r="AJ17" s="20"/>
+    </row>
+    <row r="18" spans="14:36" ht="15" customHeight="1">
       <c r="N18" s="20"/>
-      <c r="AI18" s="20"/>
-    </row>
-    <row r="19" spans="14:35" ht="15" customHeight="1">
+      <c r="AJ18" s="20"/>
+    </row>
+    <row r="19" spans="14:36" ht="15" customHeight="1">
       <c r="N19" s="20"/>
-      <c r="AI19" s="20"/>
-    </row>
-    <row r="20" spans="14:35" ht="15" customHeight="1">
+      <c r="AJ19" s="20"/>
+    </row>
+    <row r="20" spans="14:36" ht="15" customHeight="1">
       <c r="N20" s="20"/>
-      <c r="AI20" s="20"/>
-    </row>
-    <row r="21" spans="14:35" ht="15" customHeight="1">
+      <c r="AJ20" s="20"/>
+    </row>
+    <row r="21" spans="14:36" ht="15" customHeight="1">
       <c r="N21" s="20"/>
-      <c r="AI21" s="20"/>
+      <c r="AJ21" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5695,198 +5900,156 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="32">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="25">
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Country">
           <x14:formula1>
             <xm:f>Lists!$F:$F</xm:f>
           </x14:formula1>
-          <xm:sqref>Q10:Q1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Country">
-          <x14:formula1>
-            <xm:f>Lists!$F:$F</xm:f>
-          </x14:formula1>
-          <xm:sqref>Q1:Q8</xm:sqref>
+          <xm:sqref>Q10:Q1048576 Q1:Q8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$B:$B</xm:f>
           </x14:formula1>
-          <xm:sqref>AI1:AI8</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Lists!$B:$B</xm:f>
-          </x14:formula1>
-          <xm:sqref>AI10:AI1048576</xm:sqref>
+          <xm:sqref>AJ10:AJ1048576 AJ1:AJ8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>Lists!$C:$C</xm:f>
           </x14:formula1>
-          <xm:sqref>AE1:AE8</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>Lists!$C:$C</xm:f>
-          </x14:formula1>
-          <xm:sqref>AE10:AE1048576</xm:sqref>
+          <xm:sqref>AF10:AF1048576 AF1:AF8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$D:$D</xm:f>
           </x14:formula1>
-          <xm:sqref>AF1:AF8</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Lists!$D:$D</xm:f>
-          </x14:formula1>
-          <xm:sqref>AF10:AF1048576</xm:sqref>
+          <xm:sqref>AG10:AG1048576 AG1:AG8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unknown Phylum">
           <x14:formula1>
             <xm:f>Lists!$G:$G</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:D8</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unknown Phylum">
-          <x14:formula1>
-            <xm:f>Lists!$G:$G</xm:f>
-          </x14:formula1>
-          <xm:sqref>D10:D1048576</xm:sqref>
+          <xm:sqref>D10:D1048576 D1:D8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>O10:O1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Lists!$A:$A</xm:f>
-          </x14:formula1>
-          <xm:sqref>O1:O8</xm:sqref>
+          <xm:sqref>O10:O1048576 O1:O8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="validationFailed">
           <x14:formula1>
             <xm:f>Lists!E2:E4</xm:f>
           </x14:formula1>
-          <xm:sqref>AB1</xm:sqref>
+          <xm:sqref>AC1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!E2:E4</xm:f>
           </x14:formula1>
-          <xm:sqref>AB2</xm:sqref>
+          <xm:sqref>AC2:AC3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!E2:E4</xm:f>
           </x14:formula1>
-          <xm:sqref>AB3</xm:sqref>
+          <xm:sqref>AC4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!E2:E4</xm:f>
           </x14:formula1>
-          <xm:sqref>AB4</xm:sqref>
+          <xm:sqref>AC5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!E2:E4</xm:f>
           </x14:formula1>
-          <xm:sqref>AB5</xm:sqref>
+          <xm:sqref>AC6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!E2:E4</xm:f>
           </x14:formula1>
-          <xm:sqref>AB6</xm:sqref>
+          <xm:sqref>AC7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!E2:E4</xm:f>
           </x14:formula1>
-          <xm:sqref>AB7</xm:sqref>
+          <xm:sqref>AC8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!E2:E4</xm:f>
           </x14:formula1>
-          <xm:sqref>AB8</xm:sqref>
+          <xm:sqref>AC10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!E2:E4</xm:f>
           </x14:formula1>
-          <xm:sqref>AB10</xm:sqref>
+          <xm:sqref>AC11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!E2:E4</xm:f>
           </x14:formula1>
-          <xm:sqref>AB11</xm:sqref>
+          <xm:sqref>AC12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!E2:E4</xm:f>
           </x14:formula1>
-          <xm:sqref>AB12</xm:sqref>
+          <xm:sqref>AC13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!E2:E4</xm:f>
           </x14:formula1>
-          <xm:sqref>AB13</xm:sqref>
+          <xm:sqref>AC14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!E2:E4</xm:f>
           </x14:formula1>
-          <xm:sqref>AB14</xm:sqref>
+          <xm:sqref>AC15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!E2:E4</xm:f>
           </x14:formula1>
-          <xm:sqref>AB15</xm:sqref>
+          <xm:sqref>AC16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!E2:E4</xm:f>
           </x14:formula1>
-          <xm:sqref>AB16</xm:sqref>
+          <xm:sqref>AC17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!E2:E4</xm:f>
           </x14:formula1>
-          <xm:sqref>AB17</xm:sqref>
+          <xm:sqref>AC18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!E2:E4</xm:f>
           </x14:formula1>
-          <xm:sqref>AB18</xm:sqref>
+          <xm:sqref>AC19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!E2:E4</xm:f>
           </x14:formula1>
-          <xm:sqref>AB19</xm:sqref>
+          <xm:sqref>AC20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!E2:E4</xm:f>
           </x14:formula1>
-          <xm:sqref>AB20</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Lists!E2:E4</xm:f>
-          </x14:formula1>
-          <xm:sqref>AB21</xm:sqref>
+          <xm:sqref>AC21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5902,9 +6065,9 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -5913,8 +6076,8 @@
     <col min="2" max="2" width="37.6640625" style="31" customWidth="1"/>
     <col min="3" max="3" width="24.1640625" style="31" customWidth="1"/>
     <col min="4" max="4" width="24.83203125" style="31" customWidth="1"/>
-    <col min="5" max="5" width="36.5" style="31" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="52.83203125" style="31" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5" style="31" customWidth="1"/>
+    <col min="6" max="6" width="129.33203125" style="31" customWidth="1"/>
     <col min="7" max="7" width="79.83203125" style="31" customWidth="1"/>
     <col min="8" max="8" width="28.83203125" style="9" customWidth="1"/>
     <col min="9" max="9" width="33.5" customWidth="1"/>
@@ -5964,8 +6127,8 @@
         <v>14</v>
       </c>
       <c r="F2" s="23" t="str">
-        <f t="shared" ref="F2:F33" si="0">CONCATENATE("&lt;attribute column='",$B2,"' uri='",$E2,"'&gt;&lt;![CDATA[",$G2,"]]&gt;&lt;/attribute&gt;")</f>
-        <v>&lt;attribute column='materialSampleID' uri='http://rs.tdwg.org/dwc/terms/MaterialSampleID'&gt;&lt;![CDATA[The "local" accession number that you use for your laboratory's database. This number should link EXACTLY to the genetic data you are providing for this sample. It must be unique among the numbers that your lab is providing.]]&gt;&lt;/attribute&gt;</v>
+        <f>CONCATENATE("&lt;attribute column='",$B2,"' uri='urn:",$B2,"' defined_by='",$E2,"'&gt;&lt;![CDATA[",$G2,"]]&gt;&lt;/attribute&gt;")</f>
+        <v>&lt;attribute column='materialSampleID' uri='urn:materialSampleID' defined_by='http://rs.tdwg.org/dwc/terms/MaterialSampleID'&gt;&lt;![CDATA[The "local" accession number that you use for your laboratory's database. This number should link EXACTLY to the genetic data you are providing for this sample. It must be unique among the numbers that your lab is providing.]]&gt;&lt;/attribute&gt;</v>
       </c>
       <c r="G2" s="48" t="s">
         <v>15</v>
@@ -5991,8 +6154,8 @@
         <v>19</v>
       </c>
       <c r="F3" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;attribute column='principalInvestigator' uri='urn:PrincipalInvestigator'&gt;&lt;![CDATA[Firstname Lastname (the PI on the grant that generated this data)]]&gt;&lt;/attribute&gt;</v>
+        <f t="shared" ref="F3:F63" si="0">CONCATENATE("&lt;attribute column='",$B3,"' uri='urn:",$B3,"' defined_by='",$E3,"'&gt;&lt;![CDATA[",$G3,"]]&gt;&lt;/attribute&gt;")</f>
+        <v>&lt;attribute column='principalInvestigator' uri='urn:principalInvestigator' defined_by='urn:PrincipalInvestigator'&gt;&lt;![CDATA[Firstname Lastname (the PI on the grant that generated this data)]]&gt;&lt;/attribute&gt;</v>
       </c>
       <c r="G3" s="50" t="s">
         <v>20</v>
@@ -6003,81 +6166,81 @@
     </row>
     <row r="4" spans="1:9" ht="14">
       <c r="A4" s="55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B4" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="D4" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="E4" s="55" t="s">
         <v>169</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>170</v>
       </c>
       <c r="F4" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;attribute column='locality' uri='http://rs.tdwg.org/dwc/terms/locality'&gt;&lt;![CDATA[Local name of site. Something that could be found by Google, e.g. city, town, ocean, etc. You must enter a value for this to the best level of precision that you are confident about. A site name like "Sanur" is good. "Indonesia" is fine if that is all you know, or "The Pacific Ocean". If you have no idea where the sample came from, please enter "Earth". Required.]]&gt;&lt;/attribute&gt;</v>
+        <v>&lt;attribute column='locality' uri='urn:locality' defined_by='http://rs.tdwg.org/dwc/terms/locality'&gt;&lt;![CDATA[Local name of site. Something that could be found by Google, e.g. city, town, ocean, etc. You must enter a value for this to the best level of precision that you are confident about. A site name like "Sanur" is good. "Indonesia" is fine if that is all you know, or "The Pacific Ocean". If you have no idea where the sample came from, please enter "Earth". Required.]]&gt;&lt;/attribute&gt;</v>
       </c>
       <c r="G4" s="85" t="s">
+        <v>472</v>
+      </c>
+      <c r="H4" s="86" t="s">
         <v>473</v>
-      </c>
-      <c r="H4" s="86" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>208</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>209</v>
       </c>
       <c r="F5" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;attribute column='phylum' uri='http://rs.tdwg.org/dwc/terms/phylum'&gt;&lt;![CDATA[The full scientific name of the phylum in which the taxon is classified. Required.]]&gt;&lt;/attribute&gt;</v>
+        <v>&lt;attribute column='phylum' uri='urn:phylum' defined_by='http://rs.tdwg.org/dwc/terms/phylum'&gt;&lt;![CDATA[The full scientific name of the phylum in which the taxon is classified. Required.]]&gt;&lt;/attribute&gt;</v>
       </c>
       <c r="G5" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="H5" s="46" t="s">
         <v>210</v>
-      </c>
-      <c r="H5" s="46" t="s">
-        <v>211</v>
       </c>
       <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:9" ht="14">
       <c r="A6" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="F6" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;attribute column='decimalLatitude' uri='http://rs.tdwg.org/dwc/terms/decimalLatitude'&gt;&lt;![CDATA[Decimal Degrees. If you don't have this information, you must enter something into the locality field to the best known precision.]]&gt;&lt;/attribute&gt;</v>
+        <v>&lt;attribute column='decimalLatitude' uri='urn:decimalLatitude' defined_by='http://rs.tdwg.org/dwc/terms/decimalLatitude'&gt;&lt;![CDATA[Decimal Degrees. If you don't have this information, you must enter something into the locality field to the best known precision.]]&gt;&lt;/attribute&gt;</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H6" s="54">
         <v>-8.6992250000000002</v>
@@ -6085,26 +6248,26 @@
     </row>
     <row r="7" spans="1:9" ht="14">
       <c r="A7" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="F7" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;attribute column='decimalLongitude' uri='http://rs.tdwg.org/dwc/terms/decimalLongitude'&gt;&lt;![CDATA[Decimal Degrees. If you don't have this information, you must enter something into the locality field to the best known precision.]]&gt;&lt;/attribute&gt;</v>
+        <v>&lt;attribute column='decimalLongitude' uri='urn:decimalLongitude' defined_by='http://rs.tdwg.org/dwc/terms/decimalLongitude'&gt;&lt;![CDATA[Decimal Degrees. If you don't have this information, you must enter something into the locality field to the best known precision.]]&gt;&lt;/attribute&gt;</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H7" s="54">
         <v>115.268333</v>
@@ -6112,26 +6275,26 @@
     </row>
     <row r="8" spans="1:9" ht="14">
       <c r="A8" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="F8" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;attribute column='coordinateUncertaintyInMeters' uri='http://rs.tdwg.org/dwc/terms/coordinateUncertaintyInMeters'&gt;&lt;![CDATA[In meters.]]&gt;&lt;/attribute&gt;</v>
+        <v>&lt;attribute column='coordinateUncertaintyInMeters' uri='urn:coordinateUncertaintyInMeters' defined_by='http://rs.tdwg.org/dwc/terms/coordinateUncertaintyInMeters'&gt;&lt;![CDATA[In meters.]]&gt;&lt;/attribute&gt;</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H8" s="54">
         <v>100</v>
@@ -6139,53 +6302,53 @@
     </row>
     <row r="9" spans="1:9" ht="14">
       <c r="A9" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="F9" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;attribute column='georeferenceProtocol' uri='http://rs.tdwg.org/dwc/terms/georeferenceProtocol'&gt;&lt;![CDATA[A description or reference to the methods used to determine the spatial footprint, coordinates, and uncertainties (e.g. GPS, Approximated from Google Maps, Based on locality name search in Google Maps (Ben Morris' script) etc.)]]&gt;&lt;/attribute&gt;</v>
+        <v>&lt;attribute column='georeferenceProtocol' uri='urn:georeferenceProtocol' defined_by='http://rs.tdwg.org/dwc/terms/georeferenceProtocol'&gt;&lt;![CDATA[A description or reference to the methods used to determine the spatial footprint, coordinates, and uncertainties (e.g. GPS, Approximated from Google Maps, Based on locality name search in Google Maps (Ben Morris' script) etc.)]]&gt;&lt;/attribute&gt;</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" s="54" t="s">
         <v>150</v>
-      </c>
-      <c r="H9" s="54" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14">
       <c r="A10" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="C10" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="D10" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="E10" s="56" t="s">
         <v>81</v>
-      </c>
-      <c r="E10" s="56" t="s">
-        <v>82</v>
       </c>
       <c r="F10" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;attribute column='yearCollected' uri='urn:yearCollected'&gt;&lt;![CDATA[YYYY (the year collected)]]&gt;&lt;/attribute&gt;</v>
+        <v>&lt;attribute column='yearCollected' uri='urn:yearCollected' defined_by='urn:yearCollected'&gt;&lt;![CDATA[YYYY (the year collected)]]&gt;&lt;/attribute&gt;</v>
       </c>
       <c r="G10" s="56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H10" s="41">
         <v>2006</v>
@@ -6193,22 +6356,22 @@
     </row>
     <row r="11" spans="1:9" ht="14">
       <c r="A11" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="56"/>
       <c r="D11" s="56"/>
       <c r="E11" s="56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F11" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;attribute column='monthCollected' uri='urn:monthCollected'&gt;&lt;![CDATA[MM (the month collected)]]&gt;&lt;/attribute&gt;</v>
+        <v>&lt;attribute column='monthCollected' uri='urn:monthCollected' defined_by='urn:monthCollected'&gt;&lt;![CDATA[MM (the month collected)]]&gt;&lt;/attribute&gt;</v>
       </c>
       <c r="G11" s="56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H11" s="41">
         <v>10</v>
@@ -6216,22 +6379,22 @@
     </row>
     <row r="12" spans="1:9" ht="14">
       <c r="A12" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="56"/>
       <c r="D12" s="56"/>
       <c r="E12" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F12" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;attribute column='dayCollected' uri='urn:dayCollected'&gt;&lt;![CDATA[DD (the day collected)]]&gt;&lt;/attribute&gt;</v>
+        <v>&lt;attribute column='dayCollected' uri='urn:dayCollected' defined_by='urn:dayCollected'&gt;&lt;![CDATA[DD (the day collected)]]&gt;&lt;/attribute&gt;</v>
       </c>
       <c r="G12" s="56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H12" s="41">
         <v>21</v>
@@ -6239,137 +6402,137 @@
     </row>
     <row r="13" spans="1:9" ht="16" customHeight="1">
       <c r="A13" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>193</v>
       </c>
       <c r="F13" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;attribute column='genus' uri='http://rs.tdwg.org/dwc/terms/genus'&gt;&lt;![CDATA[The full scientific name of the genus in which the taxon is classified.]]&gt;&lt;/attribute&gt;</v>
+        <v>&lt;attribute column='genus' uri='urn:genus' defined_by='http://rs.tdwg.org/dwc/terms/genus'&gt;&lt;![CDATA[The full scientific name of the genus in which the taxon is classified.]]&gt;&lt;/attribute&gt;</v>
       </c>
       <c r="G13" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H13" s="51" t="s">
         <v>194</v>
-      </c>
-      <c r="H13" s="51" t="s">
-        <v>195</v>
       </c>
       <c r="I13" s="52"/>
     </row>
     <row r="14" spans="1:9" ht="16" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>197</v>
       </c>
       <c r="F14" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;attribute column='species' uri='http://rs.tdwg.org/dwc/terms/specificEpithet'&gt;&lt;![CDATA[The name of the first or species epithet of the scientificName.]]&gt;&lt;/attribute&gt;</v>
+        <v>&lt;attribute column='species' uri='urn:species' defined_by='http://rs.tdwg.org/dwc/terms/specificEpithet'&gt;&lt;![CDATA[The name of the first or species epithet of the scientificName.]]&gt;&lt;/attribute&gt;</v>
       </c>
       <c r="G14" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H14" s="51" t="s">
         <v>198</v>
-      </c>
-      <c r="H14" s="51" t="s">
-        <v>199</v>
       </c>
       <c r="I14" s="52"/>
     </row>
     <row r="15" spans="1:9" ht="28">
       <c r="A15" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="56" t="s">
         <v>90</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="56" t="s">
-        <v>91</v>
       </c>
       <c r="F15" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;attribute column='permitInformation' uri='urn:permitInformation'&gt;&lt;![CDATA[Please include any permit information (agency, permit#, etc) as a text string]]&gt;&lt;/attribute&gt;</v>
+        <v>&lt;attribute column='permitInformation' uri='urn:permitInformation' defined_by='urn:permitInformation'&gt;&lt;![CDATA[Please include any permit information (agency, permit#, etc) as a text string]]&gt;&lt;/attribute&gt;</v>
       </c>
       <c r="G15" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="41" t="s">
         <v>92</v>
-      </c>
-      <c r="H15" s="41" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16" customHeight="1">
       <c r="A16" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="C16" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="D16" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="35" t="s">
         <v>173</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>174</v>
       </c>
       <c r="F16" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;attribute column='basisOfIdentification' uri='urn:basisOfID'&gt;&lt;![CDATA[Morphology, Genetic, Other.]]&gt;&lt;/attribute&gt;</v>
+        <v>&lt;attribute column='basisOfIdentification' uri='urn:basisOfIdentification' defined_by='urn:basisOfID'&gt;&lt;![CDATA[Morphology, Genetic, Other.]]&gt;&lt;/attribute&gt;</v>
       </c>
       <c r="G16" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="H16" s="43" t="s">
         <v>175</v>
-      </c>
-      <c r="H16" s="43" t="s">
-        <v>176</v>
       </c>
       <c r="I16" s="27"/>
     </row>
     <row r="17" spans="1:8" ht="14">
       <c r="A17" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>231</v>
       </c>
       <c r="F17" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;attribute column='wormsID' uri='urn:wormsID'&gt;&lt;![CDATA[Identification # (AphiaID) for Worms database (http://www.marinespecies.org/). Please try to provide this or the genus/species.]]&gt;&lt;/attribute&gt;</v>
+        <v>&lt;attribute column='wormsID' uri='urn:wormsID' defined_by='urn:wormsID'&gt;&lt;![CDATA[Identification # (AphiaID) for Worms database (http://www.marinespecies.org/). Please try to provide this or the genus/species.]]&gt;&lt;/attribute&gt;</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H17" s="51">
         <v>207610</v>
@@ -6377,96 +6540,96 @@
     </row>
     <row r="18" spans="1:8" ht="14">
       <c r="A18" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F18" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;attribute column='country' uri='http://rs.tdwg.org/dwc/terms/country'&gt;&lt;![CDATA[The country where the sample was found. Must be found in associated list in "lists" tab.]]&gt;&lt;/attribute&gt;</v>
+        <v>&lt;attribute column='country' uri='urn:country' defined_by='http://rs.tdwg.org/dwc/terms/country'&gt;&lt;![CDATA[The country where the sample was found. Must be found in associated list in "lists" tab.]]&gt;&lt;/attribute&gt;</v>
       </c>
       <c r="G18" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H18" s="54" t="s">
         <v>154</v>
-      </c>
-      <c r="H18" s="54" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14">
       <c r="A19" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F19" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;attribute column='stateProvince' uri='http://rs.tdwg.org/dwc/terms/stateProvince'&gt;&lt;![CDATA[The state or province where the sample was found.]]&gt;&lt;/attribute&gt;</v>
+        <v>&lt;attribute column='stateProvince' uri='urn:stateProvince' defined_by='http://rs.tdwg.org/dwc/terms/stateProvince'&gt;&lt;![CDATA[The state or province where the sample was found.]]&gt;&lt;/attribute&gt;</v>
       </c>
       <c r="G19" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H19" s="54" t="s">
         <v>158</v>
-      </c>
-      <c r="H19" s="54" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="14">
       <c r="A20" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F20" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;attribute column='island' uri='http://rs.tdwg.org/dwc/terms/island'&gt;&lt;![CDATA[The island where the sample was found.]]&gt;&lt;/attribute&gt;</v>
+        <v>&lt;attribute column='island' uri='urn:island' defined_by='http://rs.tdwg.org/dwc/terms/island'&gt;&lt;![CDATA[The island where the sample was found.]]&gt;&lt;/attribute&gt;</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H20" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14">
       <c r="A21" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F21" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;attribute column='islandGroup' uri='http://rs.tdwg.org/dwc/terms/islandGroup'&gt;&lt;![CDATA[The island group or archipelago where the sample was found.]]&gt;&lt;/attribute&gt;</v>
+        <v>&lt;attribute column='islandGroup' uri='urn:islandGroup' defined_by='http://rs.tdwg.org/dwc/terms/islandGroup'&gt;&lt;![CDATA[The island group or archipelago where the sample was found.]]&gt;&lt;/attribute&gt;</v>
       </c>
       <c r="G21" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H21" s="54" t="s">
         <v>165</v>
-      </c>
-      <c r="H21" s="54" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14">
@@ -6483,7 +6646,7 @@
       </c>
       <c r="F22" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;attribute column='sampleOwnerInstitutionCode' uri='http://rs.tdwg.org/dwc/terms/ownerInstitutionCode'&gt;&lt;![CDATA[Most commonly used acronym for your university, agency or institution]]&gt;&lt;/attribute&gt;</v>
+        <v>&lt;attribute column='sampleOwnerInstitutionCode' uri='urn:sampleOwnerInstitutionCode' defined_by='http://rs.tdwg.org/dwc/terms/ownerInstitutionCode'&gt;&lt;![CDATA[Most commonly used acronym for your university, agency or institution]]&gt;&lt;/attribute&gt;</v>
       </c>
       <c r="G22" s="50" t="s">
         <v>24</v>
@@ -6502,11 +6665,11 @@
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
       <c r="E23" s="88" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F23" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;attribute column='fundingSource' uri='urn:fundingSource'&gt;&lt;![CDATA[Granting body and grant number, can be in a delimited list.]]&gt;&lt;/attribute&gt;</v>
+        <v>&lt;attribute column='fundingSource' uri='urn:fundingSource' defined_by='urn:fundingSource'&gt;&lt;![CDATA[Granting body and grant number, can be in a delimited list.]]&gt;&lt;/attribute&gt;</v>
       </c>
       <c r="G23" s="50" t="s">
         <v>28</v>
@@ -6529,7 +6692,7 @@
       </c>
       <c r="F24" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;attribute column='occurrenceID' uri='http://rs.tdwg.org/dwc/terms/occurrenceID'&gt;&lt;![CDATA[Specimen voucher ID]]&gt;&lt;/attribute&gt;</v>
+        <v>&lt;attribute column='occurrenceID' uri='urn:occurrenceID' defined_by='http://rs.tdwg.org/dwc/terms/occurrenceID'&gt;&lt;![CDATA[Specimen voucher ID]]&gt;&lt;/attribute&gt;</v>
       </c>
       <c r="G24" s="50" t="s">
         <v>32</v>
@@ -6552,7 +6715,7 @@
       </c>
       <c r="F25" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;attribute column='associatedMedia' uri='http://rs.tdwg.org/dwc/terms/associatedMedia'&gt;&lt;![CDATA[Photos, videos etc of the individual. From Darwincore: A list (concatenated and separated) of identifiers (publication, global unique identifier, URI,DOI) of media associated with the Occurrence.]]&gt;&lt;/attribute&gt;</v>
+        <v>&lt;attribute column='associatedMedia' uri='urn:associatedMedia' defined_by='http://rs.tdwg.org/dwc/terms/associatedMedia'&gt;&lt;![CDATA[Photos, videos etc of the individual. From Darwincore: A list (concatenated and separated) of identifiers (publication, global unique identifier, URI,DOI) of media associated with the Occurrence.]]&gt;&lt;/attribute&gt;</v>
       </c>
       <c r="G25" s="50" t="s">
         <v>36</v>
@@ -6575,7 +6738,7 @@
       </c>
       <c r="F26" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;attribute column='associatedReferences' uri='http://rs.tdwg.org/dwc/terms/associatedReferences'&gt;&lt;![CDATA[Any associated publications/references pertaining to this individual or its derivative tissues or sequences. The first place it was published is particularly relevant. From Darwincore: A list (concatenated and separated) of identifiers (publication, bibliographic reference, global unique identifier, URI) of literature associated with the Occurrence.]]&gt;&lt;/attribute&gt;</v>
+        <v>&lt;attribute column='associatedReferences' uri='urn:associatedReferences' defined_by='http://rs.tdwg.org/dwc/terms/associatedReferences'&gt;&lt;![CDATA[Any associated publications/references pertaining to this individual or its derivative tissues or sequences. The first place it was published is particularly relevant. From Darwincore: A list (concatenated and separated) of identifiers (publication, bibliographic reference, global unique identifier, URI) of literature associated with the Occurrence.]]&gt;&lt;/attribute&gt;</v>
       </c>
       <c r="G26" s="50" t="s">
         <v>40</v>
@@ -6598,7 +6761,7 @@
       </c>
       <c r="F27" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;attribute column='preservative' uri='http://rs.tdwg.org/dwc/terms/preparations'&gt;&lt;![CDATA[A list (concatenated and separated) of preparations and preservation methods for a specimen. Example: "95% EtOH"; "Frozen"]]&gt;&lt;/attribute&gt;</v>
+        <v>&lt;attribute column='preservative' uri='urn:preservative' defined_by='http://rs.tdwg.org/dwc/terms/preparations'&gt;&lt;![CDATA[A list (concatenated and separated) of preparations and preservation methods for a specimen. Example: "95% EtOH"; "Frozen"]]&gt;&lt;/attribute&gt;</v>
       </c>
       <c r="G27" s="50" t="s">
         <v>44</v>
@@ -6621,7 +6784,7 @@
       </c>
       <c r="F28" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;attribute column='previousIdentifications' uri='http://rs.tdwg.org/dwc/terms/previousIdentifications'&gt;&lt;![CDATA[A list (concatenated and separated) of previous assignments of names to the Occurrence.]]&gt;&lt;/attribute&gt;</v>
+        <v>&lt;attribute column='previousIdentifications' uri='urn:previousIdentifications' defined_by='http://rs.tdwg.org/dwc/terms/previousIdentifications'&gt;&lt;![CDATA[A list (concatenated and separated) of previous assignments of names to the Occurrence.]]&gt;&lt;/attribute&gt;</v>
       </c>
       <c r="G28" s="50" t="s">
         <v>48</v>
@@ -6646,7 +6809,7 @@
       </c>
       <c r="F29" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;attribute column='lifeStage' uri='http://rs.tdwg.org/dwc/terms/lifeStage'&gt;&lt;![CDATA[The age class or life stage of the biological individual(s) at the time the Occurrence was recorded. Recommended best practice is to use a controlled vocabulary.]]&gt;&lt;/attribute&gt;</v>
+        <v>&lt;attribute column='lifeStage' uri='urn:lifeStage' defined_by='http://rs.tdwg.org/dwc/terms/lifeStage'&gt;&lt;![CDATA[The age class or life stage of the biological individual(s) at the time the Occurrence was recorded. Recommended best practice is to use a controlled vocabulary.]]&gt;&lt;/attribute&gt;</v>
       </c>
       <c r="G29" s="50" t="s">
         <v>53</v>
@@ -6666,15 +6829,15 @@
       <c r="D30" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="50" t="s">
-        <v>57</v>
+      <c r="E30" s="71" t="s">
+        <v>482</v>
       </c>
       <c r="F30" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;attribute column='weight' uri=' http://purl.obolibrary.org/obo/PATO_0000128'&gt;&lt;![CDATA[In Grams. Referring to the weight of the organism from which the sample was derived]]&gt;&lt;/attribute&gt;</v>
+        <v>&lt;attribute column='weight' uri='urn:weight' defined_by='http://purl.obolibrary.org/obo/PATO_0000128'&gt;&lt;![CDATA[In Grams. Referring to the weight of the organism from which the sample was derived]]&gt;&lt;/attribute&gt;</v>
       </c>
       <c r="G30" s="50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H30" s="32">
         <v>20</v>
@@ -6685,21 +6848,21 @@
         <v>10</v>
       </c>
       <c r="B31" s="50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="50"/>
       <c r="D31" s="50" t="s">
         <v>56</v>
       </c>
       <c r="E31" s="50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F31" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;attribute column='length' uri='http://purl.obolibrary.org/obo/PATO_0000122'&gt;&lt;![CDATA[In Centimeters. Referring to the length of the organism from which the sample was derived]]&gt;&lt;/attribute&gt;</v>
+        <v>&lt;attribute column='length' uri='urn:length' defined_by='http://purl.obolibrary.org/obo/PATO_0000122'&gt;&lt;![CDATA[In Centimeters. Referring to the length of the organism from which the sample was derived]]&gt;&lt;/attribute&gt;</v>
       </c>
       <c r="G31" s="50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H31" s="32">
         <v>20</v>
@@ -6710,24 +6873,24 @@
         <v>10</v>
       </c>
       <c r="B32" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="50"/>
       <c r="D32" s="71" t="s">
         <v>51</v>
       </c>
       <c r="E32" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F32" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;attribute column='sex' uri='http://rs.tdwg.org/dwc/terms/sex'&gt;&lt;![CDATA[The sex of the biological individual(s) represented in the Occurrence. Recommended best practice is to use a controlled vocabulary. See associated list on "lists" tab.]]&gt;&lt;/attribute&gt;</v>
+        <v>&lt;attribute column='sex' uri='urn:sex' defined_by='http://rs.tdwg.org/dwc/terms/sex'&gt;&lt;![CDATA[The sex of the biological individual(s) represented in the Occurrence. Recommended best practice is to use a controlled vocabulary. See associated list on "lists" tab.]]&gt;&lt;/attribute&gt;</v>
       </c>
       <c r="G32" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" s="32" t="s">
         <v>64</v>
-      </c>
-      <c r="H32" s="32" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14">
@@ -6735,22 +6898,22 @@
         <v>10</v>
       </c>
       <c r="B33" s="50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33" s="50"/>
       <c r="D33" s="50"/>
       <c r="E33" s="50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F33" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;attribute column='establishmentMeans' uri='http://rs.tdwg.org/dwc/terms/establishmentMeans'&gt;&lt;![CDATA[The process by which the biological individual(s) represented in the Occurrence became established at the location. Recommended best practice is to use a controlled vocabulary. See associated list in "lists" tab.]]&gt;&lt;/attribute&gt;</v>
+        <v>&lt;attribute column='establishmentMeans' uri='urn:establishmentMeans' defined_by='http://rs.tdwg.org/dwc/terms/establishmentMeans'&gt;&lt;![CDATA[The process by which the biological individual(s) represented in the Occurrence became established at the location. Recommended best practice is to use a controlled vocabulary. See associated list in "lists" tab.]]&gt;&lt;/attribute&gt;</v>
       </c>
       <c r="G33" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" s="32" t="s">
         <v>68</v>
-      </c>
-      <c r="H33" s="32" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="14">
@@ -6758,22 +6921,22 @@
         <v>10</v>
       </c>
       <c r="B34" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" s="50"/>
       <c r="D34" s="50"/>
       <c r="E34" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;attribute column='associatedSequences' uri='urn:associatedSequences' defined_by='http://rs.tdwg.org/dwc/terms/associatedSequences'&gt;&lt;![CDATA[A list (concatenated and separated) of identifiers (publication, global unique identifier, URI) of genetic sequence information associated with the Occurrence. Links to Genbank or DRYAD entries.]]&gt;&lt;/attribute&gt;</v>
+      </c>
+      <c r="G34" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="F34" s="23" t="str">
-        <f t="shared" ref="F34:F63" si="1">CONCATENATE("&lt;attribute column='",$B34,"' uri='",$E34,"'&gt;&lt;![CDATA[",$G34,"]]&gt;&lt;/attribute&gt;")</f>
-        <v>&lt;attribute column='associatedSequences' uri='http://rs.tdwg.org/dwc/terms/associatedSequences'&gt;&lt;![CDATA[A list (concatenated and separated) of identifiers (publication, global unique identifier, URI) of genetic sequence information associated with the Occurrence. Links to Genbank or DRYAD entries.]]&gt;&lt;/attribute&gt;</v>
-      </c>
-      <c r="G34" s="50" t="s">
+      <c r="H34" s="32" t="s">
         <v>72</v>
-      </c>
-      <c r="H34" s="32" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="28">
@@ -6781,138 +6944,138 @@
         <v>10</v>
       </c>
       <c r="B35" s="50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" s="50"/>
       <c r="D35" s="50"/>
       <c r="E35" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;attribute column='occurrenceRemarks' uri='urn:occurrenceRemarks' defined_by='http://rs.tdwg.org/dwc/terms/occurrenceRemarks'&gt;&lt;![CDATA[Any other relevant comments or notes about the sample itself.]]&gt;&lt;/attribute&gt;</v>
+      </c>
+      <c r="G35" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="F35" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;attribute column='occurrenceRemarks' uri='http://rs.tdwg.org/dwc/terms/occurrenceRemarks'&gt;&lt;![CDATA[Any other relevant comments or notes about the sample itself.]]&gt;&lt;/attribute&gt;</v>
-      </c>
-      <c r="G35" s="50" t="s">
+      <c r="H35" s="32" t="s">
         <v>76</v>
-      </c>
-      <c r="H35" s="32" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14">
       <c r="A36" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C36" s="56"/>
       <c r="D36" s="56" t="s">
         <v>51</v>
       </c>
       <c r="E36" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;attribute column='habitat' uri='urn:habitat' defined_by='http://purl.obolibrary.org/obo/ENVO_00002036'&gt;&lt;![CDATA[Habitat from which the sample was collected. Please pick from the associated list in "lists" tab.]]&gt;&lt;/attribute&gt;</v>
+      </c>
+      <c r="G36" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="F36" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;attribute column='habitat' uri='http://purl.obolibrary.org/obo/ENVO_00002036'&gt;&lt;![CDATA[Habitat from which the sample was collected. Please pick from the associated list in "lists" tab.]]&gt;&lt;/attribute&gt;</v>
-      </c>
-      <c r="G36" s="56" t="s">
+      <c r="H36" s="41" t="s">
         <v>96</v>
-      </c>
-      <c r="H36" s="41" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="27.75" customHeight="1">
       <c r="A37" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37" s="56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C37" s="56"/>
       <c r="D37" s="56"/>
       <c r="E37" s="74" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F37" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;attribute column='microHabitat' uri='urn:microHabitat'&gt;&lt;![CDATA[Information about the microhabitat from which the sample was collected. E.g. Forereef, coral head]]&gt;&lt;/attribute&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;attribute column='microHabitat' uri='urn:microHabitat' defined_by='urn:microHabitat'&gt;&lt;![CDATA[Information about the microhabitat from which the sample was collected. E.g. Forereef, coral head]]&gt;&lt;/attribute&gt;</v>
       </c>
       <c r="G37" s="74" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H37" s="41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="14">
       <c r="A38" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B38" s="56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C38" s="56"/>
       <c r="D38" s="56"/>
       <c r="E38" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;attribute column='substratum' uri='urn:substratum' defined_by='http://purl.obolibrary.org/obo/ENVO_00010483'&gt;&lt;![CDATA[Substrate from which the individual was sampled. This could be abiotic or biotic (host organism).]]&gt;&lt;/attribute&gt;</v>
+      </c>
+      <c r="G38" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="F38" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;attribute column='substratum' uri='http://purl.obolibrary.org/obo/ENVO_00010483'&gt;&lt;![CDATA[Substrate from which the individual was sampled. This could be abiotic or biotic (host organism).]]&gt;&lt;/attribute&gt;</v>
-      </c>
-      <c r="G38" s="56" t="s">
+      <c r="H38" s="41" t="s">
         <v>102</v>
-      </c>
-      <c r="H38" s="41" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="28">
       <c r="A39" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B39" s="56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C39" s="56"/>
       <c r="D39" s="56"/>
       <c r="E39" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;attribute column='samplingProtocol' uri='urn:samplingProtocol' defined_by='http://rs.tdwg.org/dwc/terms/samplingProtocol'&gt;&lt;![CDATA[Brief description of how the sample was taken. From Darwincore: The name of, reference to, or description of the method or protocol used during an Event.]]&gt;&lt;/attribute&gt;</v>
+      </c>
+      <c r="G39" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="F39" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;attribute column='samplingProtocol' uri='http://rs.tdwg.org/dwc/terms/samplingProtocol'&gt;&lt;![CDATA[Brief description of how the sample was taken. From Darwincore: The name of, reference to, or description of the method or protocol used during an Event.]]&gt;&lt;/attribute&gt;</v>
-      </c>
-      <c r="G39" s="56" t="s">
+      <c r="H39" s="41" t="s">
         <v>106</v>
-      </c>
-      <c r="H39" s="41" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="14">
       <c r="A40" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B40" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C40" s="56"/>
       <c r="D40" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="E40" s="56" t="s">
+      <c r="F40" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;attribute column='minimumDepthInMeters' uri='urn:minimumDepthInMeters' defined_by='http://rs.tdwg.org/dwc/terms/minimumDepthInMeters'&gt;&lt;![CDATA[In Meters. Use with maximum depth to bracket the range of depth at which the sample was taken. In meters (positive values below surface)]]&gt;&lt;/attribute&gt;</v>
+      </c>
+      <c r="G40" s="56" t="s">
         <v>110</v>
-      </c>
-      <c r="F40" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;attribute column='minimumDepthInMeters' uri='http://rs.tdwg.org/dwc/terms/minimumDepthInMeters'&gt;&lt;![CDATA[In Meters. Use with maximum depth to bracket the range of depth at which the sample was taken. In meters (positive values below surface)]]&gt;&lt;/attribute&gt;</v>
-      </c>
-      <c r="G40" s="56" t="s">
-        <v>111</v>
       </c>
       <c r="H40" s="41">
         <v>20</v>
@@ -6920,24 +7083,24 @@
     </row>
     <row r="41" spans="1:9" ht="14">
       <c r="A41" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B41" s="56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C41" s="56"/>
       <c r="D41" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="E41" s="56" t="s">
+      <c r="F41" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;attribute column='maximumDepthInMeters' uri='urn:maximumDepthInMeters' defined_by='http://rs.tdwg.org/dwc/terms/maximumDepthInMeters'&gt;&lt;![CDATA[In Meters. Use with minimum depth to bracket the range of depth at which the sample was taken. In meters (positive values below surface)]]&gt;&lt;/attribute&gt;</v>
+      </c>
+      <c r="G41" s="56" t="s">
         <v>114</v>
-      </c>
-      <c r="F41" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;attribute column='maximumDepthInMeters' uri='http://rs.tdwg.org/dwc/terms/maximumDepthInMeters'&gt;&lt;![CDATA[In Meters. Use with minimum depth to bracket the range of depth at which the sample was taken. In meters (positive values below surface)]]&gt;&lt;/attribute&gt;</v>
-      </c>
-      <c r="G41" s="56" t="s">
-        <v>115</v>
       </c>
       <c r="H41" s="41">
         <v>1</v>
@@ -6945,183 +7108,183 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B42" s="56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C42" s="56"/>
       <c r="D42" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E42" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;attribute column='minimumDistanceAboveSurfaceInMeters' uri='urn:minimumDistanceAboveSurfaceInMeters' defined_by='http://rs.tdwg.org/dwc/terms/minimumDistanceAboveSurfaceInMeters'&gt;&lt;![CDATA[In Meters. Use with maximum distance above surface to bracket the range of height at which the sample was taken in meters (positive values above surface)]]&gt;&lt;/attribute&gt;</v>
+      </c>
+      <c r="G42" s="56" t="s">
         <v>117</v>
-      </c>
-      <c r="F42" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;attribute column='minimumDistanceAboveSurfaceInMeters' uri='http://rs.tdwg.org/dwc/terms/minimumDistanceAboveSurfaceInMeters'&gt;&lt;![CDATA[In Meters. Use with maximum distance above surface to bracket the range of height at which the sample was taken in meters (positive values above surface)]]&gt;&lt;/attribute&gt;</v>
-      </c>
-      <c r="G42" s="56" t="s">
-        <v>118</v>
       </c>
       <c r="H42" s="41"/>
     </row>
     <row r="43" spans="1:9" s="27" customFormat="1">
       <c r="A43" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B43" s="56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C43" s="56"/>
       <c r="D43" s="56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E43" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="F43" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;attribute column='maximumDistanceAboveSurfaceInMeters' uri='urn:maximumDistanceAboveSurfaceInMeters' defined_by='http://rs.tdwg.org/dwc/terms/maximumDistanceAboveSurfaceInMeters'&gt;&lt;![CDATA[In Meters. Use with minimum distance above surface to bracket the range of height at which the sample was taken in meters (positive values above surface)]]&gt;&lt;/attribute&gt;</v>
+      </c>
+      <c r="G43" s="56" t="s">
         <v>120</v>
-      </c>
-      <c r="F43" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;attribute column='maximumDistanceAboveSurfaceInMeters' uri='http://rs.tdwg.org/dwc/terms/maximumDistanceAboveSurfaceInMeters'&gt;&lt;![CDATA[In Meters. Use with minimum distance above surface to bracket the range of height at which the sample was taken in meters (positive values above surface)]]&gt;&lt;/attribute&gt;</v>
-      </c>
-      <c r="G43" s="56" t="s">
-        <v>121</v>
       </c>
       <c r="H43" s="41"/>
       <c r="I43"/>
     </row>
     <row r="44" spans="1:9" ht="27.75" customHeight="1">
       <c r="A44" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
       <c r="E44" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="F44" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;attribute column='associatedTaxa' uri='urn:associatedTaxa' defined_by='http://rs.tdwg.org/dwc/terms/associatedTaxa'&gt;&lt;![CDATA[A list (concatenated and separated) of hosts/parasites/symbionts of the sampled individual.]]&gt;&lt;/attribute&gt;</v>
+      </c>
+      <c r="G44" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="F44" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;attribute column='associatedTaxa' uri='http://rs.tdwg.org/dwc/terms/associatedTaxa'&gt;&lt;![CDATA[A list (concatenated and separated) of hosts/parasites/symbionts of the sampled individual.]]&gt;&lt;/attribute&gt;</v>
-      </c>
-      <c r="G44" s="56" t="s">
+      <c r="H44" s="33" t="s">
         <v>124</v>
-      </c>
-      <c r="H44" s="33" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="42">
       <c r="A45" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B45" s="56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C45" s="56"/>
       <c r="D45" s="56"/>
       <c r="E45" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="F45" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;attribute column='fieldNotes' uri='urn:fieldNotes' defined_by='http://rs.tdwg.org/dwc/terms/fieldNotes'&gt;&lt;![CDATA[Any notes taken in the field, or a link to those notes: population size, ecological info, etc.]]&gt;&lt;/attribute&gt;</v>
+      </c>
+      <c r="G45" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="F45" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;attribute column='fieldNotes' uri='http://rs.tdwg.org/dwc/terms/fieldNotes'&gt;&lt;![CDATA[Any notes taken in the field, or a link to those notes: population size, ecological info, etc.]]&gt;&lt;/attribute&gt;</v>
-      </c>
-      <c r="G45" s="56" t="s">
+      <c r="H45" s="41" t="s">
         <v>128</v>
-      </c>
-      <c r="H45" s="41" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="14">
       <c r="A46" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B46" s="56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="56"/>
       <c r="D46" s="56"/>
       <c r="E46" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="F46" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;attribute column='eventRemarks' uri='urn:eventRemarks' defined_by='http://rs.tdwg.org/dwc/terms/eventRemarks'&gt;&lt;![CDATA[A text string for notes that were written on the original label during collection]]&gt;&lt;/attribute&gt;</v>
+      </c>
+      <c r="G46" s="56" t="s">
         <v>131</v>
-      </c>
-      <c r="F46" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;attribute column='eventRemarks' uri='http://rs.tdwg.org/dwc/terms/eventRemarks'&gt;&lt;![CDATA[A text string for notes that were written on the original label during collection]]&gt;&lt;/attribute&gt;</v>
-      </c>
-      <c r="G46" s="56" t="s">
-        <v>132</v>
       </c>
       <c r="H46" s="41"/>
     </row>
     <row r="47" spans="1:9" ht="14">
       <c r="A47" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B47" s="56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C47" s="56"/>
       <c r="D47" s="56"/>
       <c r="E47" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="F47" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;attribute column='recordedBy' uri='urn:recordedBy' defined_by='http://rs.tdwg.org/dwc/terms/recordedBy'&gt;&lt;![CDATA[Full Name (can be list -- primary collector first, separate list by semicolons)]]&gt;&lt;/attribute&gt;</v>
+      </c>
+      <c r="G47" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="F47" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;attribute column='recordedBy' uri='http://rs.tdwg.org/dwc/terms/recordedBy'&gt;&lt;![CDATA[Full Name (can be list -- primary collector first, separate list by semicolons)]]&gt;&lt;/attribute&gt;</v>
-      </c>
-      <c r="G47" s="56" t="s">
+      <c r="H47" s="41" t="s">
         <v>135</v>
-      </c>
-      <c r="H47" s="41" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="52" customFormat="1">
       <c r="A48" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C48" s="35"/>
       <c r="D48" s="35"/>
       <c r="E48" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="F48" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;attribute column='identifiedBy' uri='urn:identifiedBy' defined_by='http://rs.tdwg.org/dwc/terms/identifiedBy'&gt;&lt;![CDATA[Full Name (A list (concatenated and separated) of names of people, groups, or organizations who assigned the Taxon to the subject.)]]&gt;&lt;/attribute&gt;</v>
+      </c>
+      <c r="G48" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="F48" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;attribute column='identifiedBy' uri='http://rs.tdwg.org/dwc/terms/identifiedBy'&gt;&lt;![CDATA[Full Name (A list (concatenated and separated) of names of people, groups, or organizations who assigned the Taxon to the subject.)]]&gt;&lt;/attribute&gt;</v>
-      </c>
-      <c r="G48" s="35" t="s">
-        <v>179</v>
-      </c>
       <c r="H48" s="43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I48"/>
     </row>
     <row r="49" spans="1:9" s="52" customFormat="1">
       <c r="A49" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C49" s="35"/>
       <c r="D49" s="35"/>
       <c r="E49" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="F49" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;attribute column='yearIdentified' uri='urn:yearIdentified' defined_by='urn:yearIdentified'&gt;&lt;![CDATA[YYYY]]&gt;&lt;/attribute&gt;</v>
+      </c>
+      <c r="G49" s="35" t="s">
         <v>181</v>
-      </c>
-      <c r="F49" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;attribute column='yearIdentified' uri='urn:yearIdentified'&gt;&lt;![CDATA[YYYY]]&gt;&lt;/attribute&gt;</v>
-      </c>
-      <c r="G49" s="35" t="s">
-        <v>182</v>
       </c>
       <c r="H49" s="43">
         <v>2006</v>
@@ -7130,22 +7293,22 @@
     </row>
     <row r="50" spans="1:9" ht="14">
       <c r="A50" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C50" s="35"/>
       <c r="D50" s="35"/>
       <c r="E50" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="F50" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;attribute column='monthIdentified' uri='urn:monthIdentified' defined_by='urn:monthIdentified'&gt;&lt;![CDATA[MM]]&gt;&lt;/attribute&gt;</v>
+      </c>
+      <c r="G50" s="35" t="s">
         <v>184</v>
-      </c>
-      <c r="F50" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;attribute column='monthIdentified' uri='urn:monthIdentified'&gt;&lt;![CDATA[MM]]&gt;&lt;/attribute&gt;</v>
-      </c>
-      <c r="G50" s="35" t="s">
-        <v>185</v>
       </c>
       <c r="H50" s="43">
         <v>10</v>
@@ -7153,22 +7316,22 @@
     </row>
     <row r="51" spans="1:9" ht="14">
       <c r="A51" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C51" s="35"/>
       <c r="D51" s="35"/>
       <c r="E51" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="F51" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;attribute column='dayIdentified' uri='urn:dayIdentified' defined_by='urn:dayIdentified'&gt;&lt;![CDATA[DD]]&gt;&lt;/attribute&gt;</v>
+      </c>
+      <c r="G51" s="35" t="s">
         <v>187</v>
-      </c>
-      <c r="F51" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;attribute column='dayIdentified' uri='urn:dayIdentified'&gt;&lt;![CDATA[DD]]&gt;&lt;/attribute&gt;</v>
-      </c>
-      <c r="G51" s="35" t="s">
-        <v>188</v>
       </c>
       <c r="H51" s="43">
         <v>21</v>
@@ -7176,232 +7339,232 @@
     </row>
     <row r="52" spans="1:9" s="27" customFormat="1">
       <c r="A52" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="F52" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;attribute column='class' uri='urn:class' defined_by='http://rs.tdwg.org/dwc/terms/class'&gt;&lt;![CDATA[The full scientific name of the class in which the taxon is classified.]]&gt;&lt;/attribute&gt;</v>
+      </c>
+      <c r="G52" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="F52" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;attribute column='class' uri='http://rs.tdwg.org/dwc/terms/class'&gt;&lt;![CDATA[The full scientific name of the class in which the taxon is classified.]]&gt;&lt;/attribute&gt;</v>
-      </c>
-      <c r="G52" s="6" t="s">
+      <c r="H52" s="51" t="s">
         <v>215</v>
-      </c>
-      <c r="H52" s="51" t="s">
-        <v>216</v>
       </c>
       <c r="I52"/>
     </row>
     <row r="53" spans="1:9" ht="14">
       <c r="A53" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E53" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F53" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;attribute column='order' uri='urn:order' defined_by='http://rs.tdwg.org/dwc/terms/order'&gt;&lt;![CDATA[The full scientific name of the order in which the taxon is classified.]]&gt;&lt;/attribute&gt;</v>
+      </c>
+      <c r="G53" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="F53" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;attribute column='order' uri='http://rs.tdwg.org/dwc/terms/order'&gt;&lt;![CDATA[The full scientific name of the order in which the taxon is classified.]]&gt;&lt;/attribute&gt;</v>
-      </c>
-      <c r="G53" s="6" t="s">
+      <c r="H53" s="51" t="s">
         <v>219</v>
-      </c>
-      <c r="H53" s="51" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="14">
       <c r="A54" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E54" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F54" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;attribute column='family' uri='urn:family' defined_by='http://rs.tdwg.org/dwc/terms/family'&gt;&lt;![CDATA[The full scientific name of the family in which the taxon is classified.]]&gt;&lt;/attribute&gt;</v>
+      </c>
+      <c r="G54" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="F54" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;attribute column='family' uri='http://rs.tdwg.org/dwc/terms/family'&gt;&lt;![CDATA[The full scientific name of the family in which the taxon is classified.]]&gt;&lt;/attribute&gt;</v>
-      </c>
-      <c r="G54" s="6" t="s">
+      <c r="H54" s="51" t="s">
         <v>223</v>
-      </c>
-      <c r="H54" s="51" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="14">
       <c r="A55" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="14"/>
       <c r="E55" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="F55" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;attribute column='subSpecies' uri='urn:subSpecies' defined_by='http://rs.tdwg.org/dwc/terms/infraspecificEpithet'&gt;&lt;![CDATA[The name of the lowest or terminal infraspecific epithet of the scientificName, excluding any rank designation.]]&gt;&lt;/attribute&gt;</v>
+      </c>
+      <c r="G55" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="F55" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;attribute column='subSpecies' uri='http://rs.tdwg.org/dwc/terms/infraspecificEpithet'&gt;&lt;![CDATA[The name of the lowest or terminal infraspecific epithet of the scientificName, excluding any rank designation.]]&gt;&lt;/attribute&gt;</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="H55" s="51"/>
     </row>
     <row r="56" spans="1:9" ht="14">
       <c r="A56" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F56" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;attribute column='vernacularName' uri='urn:vernacularName' defined_by='http://rs.tdwg.org/dwc/terms/vernacularName'&gt;&lt;![CDATA[Common name and/or native name]]&gt;&lt;/attribute&gt;</v>
+      </c>
+      <c r="G56" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="F56" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;attribute column='vernacularName' uri='http://rs.tdwg.org/dwc/terms/vernacularName'&gt;&lt;![CDATA[Common name and/or native name]]&gt;&lt;/attribute&gt;</v>
-      </c>
-      <c r="G56" s="6" t="s">
+      <c r="H56" s="51" t="s">
         <v>205</v>
-      </c>
-      <c r="H56" s="51" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F57" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;attribute column='taxonRemarks' uri='urn:taxonRemarks' defined_by='http://rs.tdwg.org/dwc/terms/taxonRemarks'&gt;&lt;![CDATA[Comments or notes about the taxon or name.]]&gt;&lt;/attribute&gt;</v>
+      </c>
+      <c r="G57" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="F57" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;attribute column='taxonRemarks' uri='http://rs.tdwg.org/dwc/terms/taxonRemarks'&gt;&lt;![CDATA[Comments or notes about the taxon or name.]]&gt;&lt;/attribute&gt;</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="H57" s="51"/>
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="B58" s="53" t="s">
         <v>233</v>
-      </c>
-      <c r="B58" s="53" t="s">
-        <v>234</v>
       </c>
       <c r="C58" s="53"/>
       <c r="D58" s="53"/>
       <c r="E58" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="F58" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;attribute column='geneticTissueType' uri='urn:geneticTissueType' defined_by='urn:geneticTissueType'&gt;&lt;![CDATA[A list (concatenated and separated) of the tissue types sampled from this individual, together with any tissue identifiers that were assigned to them]]&gt;&lt;/attribute&gt;</v>
+      </c>
+      <c r="G58" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="F58" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;attribute column='geneticTissueType' uri='urn:geneticTissueType'&gt;&lt;![CDATA[A list (concatenated and separated) of the tissue types sampled from this individual, together with any tissue identifiers that were assigned to them]]&gt;&lt;/attribute&gt;</v>
-      </c>
-      <c r="G58" s="53" t="s">
+      <c r="H58" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="53" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B59" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C59" s="53"/>
       <c r="D59" s="53"/>
       <c r="E59" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="F59" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;attribute column='plateID' uri='urn:plateID' defined_by='urn:plateID'&gt;&lt;![CDATA[A platename where the DNA extract is stored]]&gt;&lt;/attribute&gt;</v>
+      </c>
+      <c r="G59" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="F59" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;attribute column='plateID' uri='urn:plateID'&gt;&lt;![CDATA[A platename where the DNA extract is stored]]&gt;&lt;/attribute&gt;</v>
-      </c>
-      <c r="G59" s="53" t="s">
+      <c r="H59" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="53" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B60" s="53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C60" s="53"/>
       <c r="D60" s="53"/>
       <c r="E60" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="F60" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;attribute column='wellID' uri='urn:wellID' defined_by='urn:wellID'&gt;&lt;![CDATA[The well on the plate where the DNA extract is stored]]&gt;&lt;/attribute&gt;</v>
+      </c>
+      <c r="G60" s="53" t="s">
         <v>243</v>
       </c>
-      <c r="F60" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;attribute column='wellID' uri='urn:wellID'&gt;&lt;![CDATA[The well on the plate where the DNA extract is stored]]&gt;&lt;/attribute&gt;</v>
-      </c>
-      <c r="G60" s="53" t="s">
+      <c r="H60" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="53" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B61" s="53" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C61" s="53"/>
       <c r="D61" s="53"/>
       <c r="E61" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="F61" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;attribute column='extractionID' uri='urn:extractionID' defined_by='urn:extractionID'&gt;&lt;![CDATA[A unique identifier for the extraction (other than plate or well)]]&gt;&lt;/attribute&gt;</v>
+      </c>
+      <c r="G61" s="53" t="s">
         <v>247</v>
-      </c>
-      <c r="F61" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;attribute column='extractionID' uri='urn:extractionID'&gt;&lt;![CDATA[A unique identifier for the extraction (other than plate or well)]]&gt;&lt;/attribute&gt;</v>
-      </c>
-      <c r="G61" s="53" t="s">
-        <v>248</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>16</v>
@@ -7409,46 +7572,46 @@
     </row>
     <row r="62" spans="1:9" ht="14">
       <c r="A62" s="53" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B62" s="53" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C62" s="53"/>
       <c r="D62" s="53"/>
       <c r="E62" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="F62" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;attribute column='previousTissueID' uri='urn:previousTissueID' defined_by='urn:previousTissueID'&gt;&lt;![CDATA[Other identifiers for this tissue.  E.g. tissue originated in another institution.]]&gt;&lt;/attribute&gt;</v>
+      </c>
+      <c r="G62" s="53" t="s">
         <v>250</v>
-      </c>
-      <c r="F62" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;attribute column='previousTissueID' uri='urn:previousTissueID'&gt;&lt;![CDATA[Other identifiers for this tissue.  E.g. tissue originated in another institution.]]&gt;&lt;/attribute&gt;</v>
-      </c>
-      <c r="G62" s="53" t="s">
-        <v>251</v>
       </c>
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="F63" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;attribute column='tissueStorageID' uri='urn:tissueStorageID' defined_by='urn:tissueStorageID'&gt;&lt;![CDATA[A list (concatenated and separated) of further identifiers for the container which holds the material sample.]]&gt;&lt;/attribute&gt;</v>
+      </c>
+      <c r="G63" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="F63" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;attribute column='tissueStorageID' uri='urn:tissueStorageID'&gt;&lt;![CDATA[A list (concatenated and separated) of further identifiers for the container which holds the material sample.]]&gt;&lt;/attribute&gt;</v>
-      </c>
-      <c r="G63" s="8" t="s">
+      <c r="H63" s="34" t="s">
         <v>254</v>
-      </c>
-      <c r="H63" s="34" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="14">
@@ -7464,10 +7627,10 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="B65" s="17" t="s">
         <v>256</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>257</v>
       </c>
       <c r="C65" s="21"/>
       <c r="D65" s="21"/>
@@ -7479,97 +7642,97 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>259</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F66" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="G66" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="H66" s="40" t="s">
         <v>262</v>
-      </c>
-      <c r="H66" s="40" t="s">
-        <v>263</v>
       </c>
       <c r="I66" s="13"/>
     </row>
     <row r="67" spans="1:9" ht="14">
       <c r="A67" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="H67" s="40" t="s">
         <v>266</v>
-      </c>
-      <c r="H67" s="40" t="s">
-        <v>267</v>
       </c>
       <c r="I67" s="13"/>
     </row>
     <row r="68" spans="1:9" ht="14">
       <c r="A68" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="G68" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="H68" s="40" t="s">
         <v>271</v>
-      </c>
-      <c r="H68" s="40" t="s">
-        <v>272</v>
       </c>
       <c r="I68" s="13"/>
     </row>
     <row r="69" spans="1:9" ht="14">
       <c r="A69" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H69" s="40" t="s">
         <v>275</v>
-      </c>
-      <c r="H69" s="40" t="s">
-        <v>276</v>
       </c>
       <c r="I69" s="13"/>
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>11</v>
@@ -7581,17 +7744,17 @@
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H70" s="40"/>
       <c r="I70" s="13"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="18"/>
@@ -7600,20 +7763,20 @@
       </c>
       <c r="F71" s="18"/>
       <c r="G71" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H71" s="40"/>
       <c r="I71" s="13"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="18" t="s">
@@ -7621,19 +7784,19 @@
       </c>
       <c r="F72" s="18"/>
       <c r="G72" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H72" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I72" s="13"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="18"/>
@@ -7642,17 +7805,17 @@
       </c>
       <c r="F73" s="18"/>
       <c r="G73" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H73" s="40"/>
       <c r="I73" s="13"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="18"/>
@@ -7661,10 +7824,10 @@
       </c>
       <c r="F74" s="18"/>
       <c r="G74" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="H74" s="40" t="s">
         <v>285</v>
-      </c>
-      <c r="H74" s="40" t="s">
-        <v>286</v>
       </c>
       <c r="I74" s="13"/>
     </row>
@@ -7678,7 +7841,7 @@
     </row>
     <row r="76" spans="1:9" ht="14">
       <c r="A76" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B76" s="57"/>
       <c r="D76" s="57"/>
@@ -7688,48 +7851,48 @@
     </row>
     <row r="77" spans="1:9" ht="14">
       <c r="A77" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="B77" s="24" t="s">
         <v>288</v>
-      </c>
-      <c r="B77" s="24" t="s">
-        <v>289</v>
       </c>
       <c r="C77" s="19"/>
       <c r="D77" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="E77" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="E77" s="19" t="s">
+      <c r="F77" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="F77" s="24" t="s">
+      <c r="G77" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="G77" s="24" t="s">
-        <v>293</v>
-      </c>
       <c r="H77" s="47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I77" s="10"/>
     </row>
     <row r="78" spans="1:9" ht="14">
       <c r="A78" s="24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C78" s="19"/>
       <c r="D78" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E78" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="F78" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="F78" s="24" t="s">
+      <c r="G78" s="24" t="s">
         <v>296</v>
-      </c>
-      <c r="G78" s="24" t="s">
-        <v>297</v>
       </c>
       <c r="H78" s="47">
         <v>2013</v>
@@ -7738,23 +7901,23 @@
     </row>
     <row r="79" spans="1:9" ht="14">
       <c r="A79" s="24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C79" s="19"/>
       <c r="D79" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E79" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="F79" s="38" t="s">
         <v>299</v>
       </c>
-      <c r="F79" s="38" t="s">
+      <c r="G79" s="38" t="s">
         <v>300</v>
-      </c>
-      <c r="G79" s="38" t="s">
-        <v>301</v>
       </c>
       <c r="H79" s="47">
         <v>11</v>
@@ -7763,23 +7926,23 @@
     </row>
     <row r="80" spans="1:9" ht="14">
       <c r="A80" s="24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C80" s="19"/>
       <c r="D80" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E80" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="F80" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="F80" s="24" t="s">
+      <c r="G80" s="24" t="s">
         <v>304</v>
-      </c>
-      <c r="G80" s="24" t="s">
-        <v>305</v>
       </c>
       <c r="H80" s="47">
         <v>14</v>
@@ -7788,23 +7951,23 @@
     </row>
     <row r="81" spans="1:9" ht="42" customHeight="1">
       <c r="A81" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B81" s="56" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C81" s="19"/>
       <c r="D81" s="56" t="s">
+        <v>306</v>
+      </c>
+      <c r="E81" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="E81" s="19" t="s">
+      <c r="F81" s="56" t="s">
         <v>308</v>
       </c>
-      <c r="F81" s="56" t="s">
+      <c r="G81" s="56" t="s">
         <v>309</v>
-      </c>
-      <c r="G81" s="56" t="s">
-        <v>310</v>
       </c>
       <c r="H81" s="41"/>
       <c r="I81" s="10"/>
@@ -7843,243 +8006,243 @@
   <sheetData>
     <row r="1" spans="1:8" s="27" customFormat="1" ht="25">
       <c r="A1" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" s="49" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="C1" s="49" t="s">
         <v>313</v>
       </c>
-      <c r="C1" s="49" t="s">
-        <v>314</v>
-      </c>
       <c r="D1" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>50</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" t="s">
         <v>316</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>317</v>
       </c>
-      <c r="E2" t="s">
-        <v>318</v>
-      </c>
       <c r="F2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H2" s="87" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
         <v>321</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>322</v>
       </c>
-      <c r="E3" t="s">
-        <v>323</v>
-      </c>
       <c r="F3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H3" t="s">
         <v>325</v>
-      </c>
-      <c r="H3" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1">
       <c r="A4" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" t="s">
         <v>329</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>330</v>
       </c>
-      <c r="E4" t="s">
-        <v>331</v>
-      </c>
       <c r="F4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G4" t="s">
+        <v>332</v>
+      </c>
+      <c r="H4" t="s">
         <v>333</v>
-      </c>
-      <c r="H4" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" t="s">
         <v>336</v>
       </c>
-      <c r="D5" t="s">
-        <v>337</v>
-      </c>
       <c r="F5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G5" t="s">
+        <v>338</v>
+      </c>
+      <c r="H5" t="s">
         <v>339</v>
-      </c>
-      <c r="H5" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" t="s">
         <v>342</v>
       </c>
-      <c r="D6" t="s">
-        <v>343</v>
-      </c>
       <c r="F6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G6" t="s">
+        <v>344</v>
+      </c>
+      <c r="H6" t="s">
         <v>345</v>
-      </c>
-      <c r="H6" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>348</v>
-      </c>
       <c r="F7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>352</v>
-      </c>
       <c r="F8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C9" s="10"/>
       <c r="F9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C10" s="10"/>
       <c r="F10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C11" s="10"/>
       <c r="F11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C12" s="10"/>
       <c r="F12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C13" s="10"/>
       <c r="F13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1">
@@ -8087,10 +8250,10 @@
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="F14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1">
@@ -8098,10 +8261,10 @@
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="F15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1">
@@ -8109,10 +8272,10 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="F16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1">
@@ -8120,10 +8283,10 @@
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="F17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1">
@@ -8131,10 +8294,10 @@
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="F18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1">
@@ -8142,10 +8305,10 @@
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="F19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1">
@@ -8153,10 +8316,10 @@
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="F20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1">
@@ -8164,10 +8327,10 @@
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="F21" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1">
@@ -8175,10 +8338,10 @@
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="F22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1">
@@ -8186,10 +8349,10 @@
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="F23" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G23" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1">
@@ -8197,10 +8360,10 @@
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="F24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1">
@@ -8208,10 +8371,10 @@
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="F25" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1">
@@ -8219,10 +8382,10 @@
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="F26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1">
@@ -8230,10 +8393,10 @@
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="F27" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G27" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1">
@@ -8241,10 +8404,10 @@
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="F28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G28" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1">
@@ -8252,10 +8415,10 @@
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="F29" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1">
@@ -8263,10 +8426,10 @@
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="F30" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G30" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1">
@@ -8274,10 +8437,10 @@
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="F31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G31" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1">
@@ -8285,10 +8448,10 @@
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="F32" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G32" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1">
@@ -8296,10 +8459,10 @@
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="F33" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G33" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1">
@@ -8307,10 +8470,10 @@
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="F34" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G34" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1">
@@ -8318,10 +8481,10 @@
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="F35" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G35" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1">
@@ -8329,10 +8492,10 @@
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="F36" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1">
@@ -8340,7 +8503,7 @@
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="F37" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1">
@@ -8348,7 +8511,7 @@
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="F38" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1">
@@ -8356,7 +8519,7 @@
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="F39" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1">
@@ -8364,7 +8527,7 @@
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="F40" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1">
@@ -8372,7 +8535,7 @@
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="F41" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1">
@@ -8380,7 +8543,7 @@
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="F42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1">
@@ -8388,7 +8551,7 @@
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="F43" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1">
@@ -8396,7 +8559,7 @@
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="F44" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1">
@@ -8404,7 +8567,7 @@
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="F45" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1">
@@ -8412,7 +8575,7 @@
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="F46" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15" customHeight="1">
@@ -8420,7 +8583,7 @@
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="F47" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15" customHeight="1">
@@ -8428,7 +8591,7 @@
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="F48" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1">
@@ -8436,7 +8599,7 @@
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="F49" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1">
@@ -8444,7 +8607,7 @@
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="F50" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1">
@@ -8452,7 +8615,7 @@
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="F51" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1">
@@ -8460,7 +8623,7 @@
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="F52" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1">
@@ -8468,7 +8631,7 @@
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="F53" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1">
@@ -8476,7 +8639,7 @@
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="F54" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1">
@@ -8484,7 +8647,7 @@
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="F55" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1">
@@ -8492,7 +8655,7 @@
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="F56" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1">
@@ -8500,7 +8663,7 @@
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="F57" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1">
@@ -8508,7 +8671,7 @@
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="F58" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1">
@@ -8516,7 +8679,7 @@
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="F59" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1">
@@ -8524,7 +8687,7 @@
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="F60" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1">
@@ -8532,7 +8695,7 @@
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="F61" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1">
@@ -8540,7 +8703,7 @@
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="F62" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1">
@@ -8548,7 +8711,7 @@
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="F63" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1">
@@ -8556,7 +8719,7 @@
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="F64" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1">
@@ -8564,7 +8727,7 @@
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="F65" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1">
@@ -8572,7 +8735,7 @@
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="F66" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1">
@@ -8580,7 +8743,7 @@
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="F67" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1">
@@ -8588,7 +8751,7 @@
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="F68" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1">
@@ -8596,7 +8759,7 @@
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="F69" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1">
@@ -8604,7 +8767,7 @@
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="F70" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1">
@@ -8612,7 +8775,7 @@
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="F71" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1">
@@ -8620,7 +8783,7 @@
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="F72" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1">
@@ -8628,7 +8791,7 @@
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="F73" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1">
@@ -8636,7 +8799,7 @@
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="F74" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15" customHeight="1">
@@ -8644,7 +8807,7 @@
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="F75" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1">
@@ -8652,7 +8815,7 @@
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="F76" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15" customHeight="1">
@@ -8660,7 +8823,7 @@
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="F77" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15" customHeight="1">
@@ -8668,7 +8831,7 @@
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="F78" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1">
@@ -8676,32 +8839,32 @@
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="F79" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1">
       <c r="F80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="81" spans="6:6" ht="15" customHeight="1">
       <c r="F81" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="82" spans="6:6" ht="15" customHeight="1">
       <c r="F82" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="83" spans="6:6" ht="15" customHeight="1">
       <c r="F83" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="84" spans="6:6" ht="15" customHeight="1">
       <c r="F84" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -8730,10 +8893,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -8754,7 +8917,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -8762,7 +8925,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="67" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8770,7 +8933,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8778,7 +8941,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="63" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -8786,7 +8949,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -8794,7 +8957,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -8802,7 +8965,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -8810,7 +8973,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -8818,7 +8981,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -8826,7 +8989,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -8834,7 +8997,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -8842,7 +9005,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -8850,7 +9013,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="63" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -8858,7 +9021,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="63" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -8866,7 +9029,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -8874,7 +9037,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="62" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -8882,7 +9045,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -8890,7 +9053,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -8970,7 +9133,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -8978,7 +9141,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -8986,7 +9149,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -8994,7 +9157,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -9002,7 +9165,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -9010,7 +9173,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -9018,7 +9181,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -9026,7 +9189,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -9034,7 +9197,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -9042,7 +9205,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -9050,7 +9213,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -9058,7 +9221,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -9066,7 +9229,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -9074,7 +9237,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -9082,7 +9245,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -9090,7 +9253,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="62" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -9098,7 +9261,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -9106,7 +9269,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="62" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -9114,7 +9277,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B49">
         <v>48</v>
@@ -9122,7 +9285,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="62" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B50">
         <v>49</v>
@@ -9130,7 +9293,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B51">
         <v>50</v>
@@ -9138,7 +9301,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B52">
         <v>51</v>
@@ -9146,7 +9309,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="62" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B53">
         <v>52</v>
@@ -9154,7 +9317,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="62" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B54">
         <v>53</v>
@@ -9162,7 +9325,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="62" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B55">
         <v>54</v>
@@ -9170,7 +9333,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="62" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B56">
         <v>55</v>
@@ -9178,7 +9341,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="62" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B57">
         <v>56</v>
@@ -9186,7 +9349,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="62" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B58">
         <v>57</v>
@@ -9194,7 +9357,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="62" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B59">
         <v>58</v>
@@ -9202,7 +9365,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B60">
         <v>59</v>
@@ -9210,7 +9373,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="62" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B61">
         <v>60</v>
@@ -9218,7 +9381,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="62" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B62">
         <v>61</v>
@@ -9226,7 +9389,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="62" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B63">
         <v>62</v>
